--- a/Vinasa/Content/Files/MauHoiVien.xlsx
+++ b/Vinasa/Content/Files/MauHoiVien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50856B53-F6CB-4EEB-B59B-5E5FF466089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC59E39-9133-4198-87DB-020FC7F6186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">Tên viết tắt </t>
   </si>
   <si>
-    <t>Ngày thành lập (theo Quyết định/ĐKKD lần đầu)</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
@@ -105,16 +102,22 @@
     <t>Fanpage Đơn vị</t>
   </si>
   <si>
-    <t xml:space="preserve">Thời gian gia nhập </t>
-  </si>
-  <si>
     <t xml:space="preserve">Khu vực </t>
+  </si>
+  <si>
+    <t>Ngày thành lập (theo Quyết định/ĐKKD lần đầu) (Theo định dạng mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Thời gian gia nhập  (Theo định dạng mm/dd/yyyy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,6 +203,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -484,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9765C3C3-FD71-4BED-A765-4AE1C38CB749}">
   <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -495,10 +502,12 @@
     <col min="3" max="3" width="19.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12" style="4"/>
-    <col min="6" max="6" width="19.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
     <col min="7" max="9" width="12" style="4"/>
     <col min="10" max="10" width="21.44140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="12" style="4"/>
+    <col min="11" max="33" width="12" style="4"/>
+    <col min="34" max="34" width="12" style="6"/>
+    <col min="35" max="16384" width="12" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -517,95 +526,95 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -637,5 +646,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vinasa/Content/Files/MauHoiVien.xlsx
+++ b/Vinasa/Content/Files/MauHoiVien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC59E39-9133-4198-87DB-020FC7F6186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B31370-6D22-4E92-AAB9-0F3A7D6089E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Thời gian gia nhập  (Theo định dạng mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9765C3C3-FD71-4BED-A765-4AE1C38CB749}">
   <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,7 +619,9 @@
       <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>

--- a/Vinasa/Content/Files/MauHoiVien.xlsx
+++ b/Vinasa/Content/Files/MauHoiVien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B31370-6D22-4E92-AAB9-0F3A7D6089E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7098B983-9524-4E76-A258-C67311848DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Fanpage Đơn vị</t>
   </si>
   <si>
-    <t xml:space="preserve">Khu vực </t>
-  </si>
-  <si>
     <t>Ngày thành lập (theo Quyết định/ĐKKD lần đầu) (Theo định dạng mm/dd/yyyy)</t>
   </si>
   <si>
@@ -112,6 +109,10 @@
   </si>
   <si>
     <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Khu vực
+(1-Bắc, 2-Trung, 3-Nam)</t>
   </si>
 </sst>
 </file>
@@ -494,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9765C3C3-FD71-4BED-A765-4AE1C38CB749}">
   <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -510,10 +511,11 @@
     <col min="10" max="10" width="21.44140625" style="4" customWidth="1"/>
     <col min="11" max="33" width="12" style="4"/>
     <col min="34" max="34" width="12" style="6"/>
-    <col min="35" max="16384" width="12" style="4"/>
+    <col min="35" max="35" width="15" style="4" customWidth="1"/>
+    <col min="36" max="16384" width="12" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" s="3" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -614,13 +616,13 @@
         <v>24</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
